--- a/MetamorphicTests/results.xlsx
+++ b/MetamorphicTests/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anurag\post_backup\MET\data\Mutants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anurag\post_backup\testing BDP\rnn_code\github\Sales-forecasting-with-RNNs\MetamorphicTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3F4F5-2D16-4A49-9CE7-8E5C002025B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E8031-8F4E-4BE0-B0C3-939E2B1707D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{F44EDE57-E73F-4E37-856D-3A39959B1BA0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Filename</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Caught by MR(s)</t>
   </si>
   <si>
-    <t>sales_forecasting</t>
-  </si>
-  <si>
     <t>103.PY</t>
   </si>
   <si>
@@ -179,15 +176,95 @@
     <t>Range = 0</t>
   </si>
   <si>
-    <t>load_model</t>
+    <t>Training (sales_forecasting)</t>
+  </si>
+  <si>
+    <t>Validation (loadModel_and_forecast)</t>
+  </si>
+  <si>
+    <t>10.PY</t>
+  </si>
+  <si>
+    <t>17.PY</t>
+  </si>
+  <si>
+    <t>18.PY</t>
+  </si>
+  <si>
+    <t>19.PY</t>
+  </si>
+  <si>
+    <t>\2.PY</t>
+  </si>
+  <si>
+    <t>22.PY</t>
+  </si>
+  <si>
+    <t>24.PY</t>
+  </si>
+  <si>
+    <t>54.PY</t>
+  </si>
+  <si>
+    <t>56.PY</t>
+  </si>
+  <si>
+    <t>67.PY</t>
+  </si>
+  <si>
+    <t>68.PY</t>
+  </si>
+  <si>
+    <t>MR2(a)</t>
+  </si>
+  <si>
+    <t>Add 309 only to validation data</t>
+  </si>
+  <si>
+    <t>MR2(b)</t>
+  </si>
+  <si>
+    <t>Multiply only validation data by 3</t>
+  </si>
+  <si>
+    <t>Only 11 rows of validation data</t>
+  </si>
+  <si>
+    <t>MR2(a), MR2(b)</t>
+  </si>
+  <si>
+    <t>MR3(a), MR3(b)</t>
+  </si>
+  <si>
+    <t>MR2(a), MR2(b), MR1(a)</t>
+  </si>
+  <si>
+    <t>Exactly 110 rows (corresponding to batch size of 100) of validation data</t>
+  </si>
+  <si>
+    <t>Less than 110 rows (corresponding to batch size of 100) of validation data</t>
+  </si>
+  <si>
+    <t>MR3(c )</t>
+  </si>
+  <si>
+    <t>MR3(a), MR3(b), MR3(c )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,13 +292,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,280 +617,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98BB090-4F4D-40E5-B005-6DED62316A5C}">
-  <dimension ref="B2:J34"/>
+  <dimension ref="B1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="C3:D32">
-    <sortCondition ref="C3:C32"/>
+  <sortState ref="C9:D38">
+    <sortCondition ref="C9:C38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
